--- a/data/evidence/data_procesor/qualityReportIDBTest_October.xlsx
+++ b/data/evidence/data_procesor/qualityReportIDBTest_October.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lgcns-my.sharepoint.com/personal/mahfudin_lgsinarmas_com/Documents/QA IDB/Report/Quality Report/Monthly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Quality_Report_IDB\data\evidence\data_procesor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{1AD6F95C-74A3-473E-B3EC-A1DA087DF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E49DFE-8E5A-4F1C-82F3-22465D5AB4A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1C951-FB0E-4C1B-BC52-D0CF621119B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
+    <workbookView xWindow="7215" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="11" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="SI" sheetId="13" r:id="rId1"/>
@@ -35,8 +35,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">June!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">March!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">May!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">October!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">September!$A$1:$R$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">October!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SI!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -688,6 +688,36 @@
     <t>Completed requests ≤ 70%</t>
   </si>
   <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Completed requests ≥ 70% and &lt; 80%</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Completed requests ≥ 80%</t>
+  </si>
+  <si>
+    <t>Metric Definitions and Impact on Project Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Fulfillment: </t>
+  </si>
+  <si>
+    <t>Measures how much of the requested functions have been completed relative to the total planned functions for the project or component.</t>
+  </si>
+  <si>
+    <t>Number of bugs found relative to the size of the project/component - critical for both new development (SI) and ongoing maintenance (SM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Correction Rate: </t>
+  </si>
+  <si>
+    <t>Percentage of bugs fixed within the evaluated period, indicating responsiveness and maintenance quality.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Bug density ≥ 3 </t>
     </r>
@@ -708,14 +738,30 @@
         <rFont val="Noto Sans KR"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Bug correction rate ≤ 70%</t>
+      <t xml:space="preserve"> Bug correction rate &lt; 70%</t>
     </r>
   </si>
   <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Completed requests ≥ 70% and &lt; 80%</t>
+    <r>
+      <t xml:space="preserve">Bug density &lt; 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans KR"/>
+      </rPr>
+      <t xml:space="preserve"> Bug correction rate ≥ 80%</t>
+    </r>
   </si>
   <si>
     <r>
@@ -736,54 +782,8 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans KR"/>
       </rPr>
-      <t xml:space="preserve"> Bug correction rate &gt; 70% and ≤ 80%</t>
+      <t xml:space="preserve"> Bug correction rate ≥ 70% and &lt; 80%</t>
     </r>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Completed requests ≥ 80%</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bug density &lt; 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans KR"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans KR"/>
-      </rPr>
-      <t xml:space="preserve"> Bug correction rate &gt; 80%</t>
-    </r>
-  </si>
-  <si>
-    <t>Metric Definitions and Impact on Project Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Fulfillment: </t>
-  </si>
-  <si>
-    <t>Measures how much of the requested functions have been completed relative to the total planned functions for the project or component.</t>
-  </si>
-  <si>
-    <t>Number of bugs found relative to the size of the project/component - critical for both new development (SI) and ongoing maintenance (SM).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug Correction Rate: </t>
-  </si>
-  <si>
-    <t>Percentage of bugs fixed within the evaluated period, indicating responsiveness and maintenance quality.</t>
   </si>
 </sst>
 </file>
@@ -791,11 +791,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="166" formatCode="[$-13809]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="165" formatCode="[$-13809]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,9 +1160,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1209,7 +1209,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,10 +1327,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,7 +1522,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,6 +1552,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,9 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2139,28 +2139,28 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="31" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3828125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.69140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.3046875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" style="31" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" style="31" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.53515625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.69140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69140625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="14.3046875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.3828125" style="34" customWidth="1"/>
     <col min="15" max="15" width="15" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.3828125" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.69140625" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="101" style="31" customWidth="1"/>
-    <col min="19" max="16384" width="9.28515625" style="31"/>
+    <col min="19" max="16384" width="9.3046875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="30" customFormat="1" ht="37.35">
+    <row r="1" spans="1:18" s="30" customFormat="1" ht="37.299999999999997" x14ac:dyDescent="0.6">
       <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A2" s="122"/>
       <c r="B2" s="123" t="s">
         <v>18</v>
@@ -2269,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A3" s="122"/>
       <c r="B3" s="123" t="s">
         <v>18</v>
@@ -2322,7 +2322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A4" s="122"/>
       <c r="B4" s="123" t="s">
         <v>18</v>
@@ -2375,7 +2375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A5" s="122"/>
       <c r="B5" s="123" t="s">
         <v>18</v>
@@ -2428,7 +2428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" s="122"/>
       <c r="B6" s="123" t="s">
         <v>18</v>
@@ -2481,7 +2481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24.95">
+    <row r="7" spans="1:18" ht="24.9" x14ac:dyDescent="0.6">
       <c r="A7" s="122"/>
       <c r="B7" s="123" t="s">
         <v>18</v>
@@ -2534,7 +2534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" ht="74.650000000000006">
+    <row r="8" spans="1:18" s="32" customFormat="1" ht="74.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="128"/>
       <c r="B8" s="123" t="s">
         <v>40</v>
@@ -2587,7 +2587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" ht="87">
+    <row r="9" spans="1:18" s="32" customFormat="1" ht="87" x14ac:dyDescent="0.4">
       <c r="A9" s="128"/>
       <c r="B9" s="123" t="s">
         <v>40</v>
@@ -2640,7 +2640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="62.1">
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="62.15" x14ac:dyDescent="0.4">
       <c r="A10" s="128"/>
       <c r="B10" s="123" t="s">
         <v>40</v>
@@ -2693,7 +2693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" ht="93.75" customHeight="1">
+    <row r="11" spans="1:18" s="32" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="128"/>
       <c r="B11" s="123" t="s">
         <v>49</v>
@@ -2744,7 +2744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="207" customHeight="1">
+    <row r="12" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="128"/>
       <c r="B12" s="123" t="s">
         <v>49</v>
@@ -2795,7 +2795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -2815,7 +2815,7 @@
       <c r="Q13" s="82"/>
       <c r="R13" s="80"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -2835,7 +2835,7 @@
       <c r="Q14" s="82"/>
       <c r="R14" s="80"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -2855,7 +2855,7 @@
       <c r="Q15" s="82"/>
       <c r="R15" s="80"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -2875,14 +2875,14 @@
       <c r="Q16" s="82"/>
       <c r="R16" s="80"/>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.6">
       <c r="F17" s="82"/>
       <c r="G17" s="80"/>
       <c r="H17" s="80"/>
       <c r="I17" s="83"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="6:10">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.6">
       <c r="F18" s="82"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
@@ -2928,35 +2928,35 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="37"/>
+    <col min="2" max="2" width="13.84375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="92.7109375" style="44" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="5" max="5" width="14.15234375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="20.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.69140625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="11.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.53515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.84375" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.3828125" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="92.69140625" style="44" customWidth="1"/>
+    <col min="19" max="16384" width="9.15234375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1">
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="55"/>
       <c r="C2" s="56" t="s">
         <v>88</v>
@@ -3063,7 +3063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="37.5" customHeight="1">
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
         <v>70</v>
@@ -3117,7 +3117,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="37.5" customHeight="1">
+    <row r="4" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56" t="s">
@@ -3172,7 +3172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.5" customHeight="1">
+    <row r="5" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>128</v>
@@ -3226,7 +3226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="37.5" customHeight="1">
+    <row r="6" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
       <c r="C6" s="56" t="s">
         <v>67</v>
@@ -3280,7 +3280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="37.5" customHeight="1">
+    <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
         <v>100</v>
@@ -3334,7 +3334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="37.5" customHeight="1">
+    <row r="8" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
         <v>83</v>
@@ -3388,7 +3388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="37.5" customHeight="1">
+    <row r="9" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
         <v>110</v>
@@ -3438,7 +3438,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="37.5" customHeight="1">
+    <row r="10" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="36"/>
       <c r="C10" s="56" t="s">
         <v>18</v>
@@ -3488,22 +3488,22 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M14" s="37"/>
     </row>
-    <row r="21" spans="1:17" s="44" customFormat="1">
+    <row r="21" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="39"/>
@@ -3522,7 +3522,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="23" spans="1:17" s="44" customFormat="1">
+    <row r="23" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="39"/>
@@ -3541,7 +3541,7 @@
       <c r="P23" s="45"/>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:17" s="44" customFormat="1">
+    <row r="24" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="39"/>
@@ -3560,7 +3560,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="43"/>
     </row>
-    <row r="28" spans="1:17" s="44" customFormat="1">
+    <row r="28" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
@@ -3579,7 +3579,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" s="44" customFormat="1">
+    <row r="29" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
@@ -3598,7 +3598,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="32" spans="1:17" s="44" customFormat="1">
+    <row r="32" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="39"/>
@@ -3617,7 +3617,7 @@
       <c r="P32" s="46"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:17" s="44" customFormat="1">
+    <row r="33" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="39"/>
@@ -3636,7 +3636,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:17" s="44" customFormat="1">
+    <row r="34" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="39"/>
@@ -3655,7 +3655,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:17" s="44" customFormat="1">
+    <row r="35" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="39"/>
@@ -3674,7 +3674,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="44" customFormat="1">
+    <row r="36" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="39"/>
@@ -3736,37 +3736,37 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="37"/>
+    <col min="2" max="2" width="13.84375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="40" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="41" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="92.7109375" style="44" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="8" max="8" width="19.69140625" style="42" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="42" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.3828125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="18.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.69140625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="11.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.53515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.84375" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.3828125" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="92.69140625" style="44" customWidth="1"/>
+    <col min="19" max="16384" width="9.15234375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1">
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="55"/>
       <c r="C2" s="56" t="s">
         <v>88</v>
@@ -3873,7 +3873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="37.5" customHeight="1">
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
         <v>70</v>
@@ -3927,7 +3927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="37.5" customHeight="1">
+    <row r="4" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56" t="s">
@@ -3982,7 +3982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.5" customHeight="1">
+    <row r="5" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>128</v>
@@ -4036,7 +4036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="37.5" customHeight="1">
+    <row r="6" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
       <c r="C6" s="56" t="s">
         <v>67</v>
@@ -4090,7 +4090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="37.5" customHeight="1">
+    <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
         <v>100</v>
@@ -4144,7 +4144,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="37.5" customHeight="1">
+    <row r="8" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
         <v>83</v>
@@ -4198,7 +4198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="37.5" customHeight="1">
+    <row r="9" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
         <v>110</v>
@@ -4244,11 +4244,11 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R9" s="145" t="s">
+      <c r="R9" s="135" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="98.25" customHeight="1">
+    <row r="10" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="36"/>
       <c r="C10" s="56" t="s">
         <v>18</v>
@@ -4298,22 +4298,22 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M14" s="37"/>
     </row>
-    <row r="21" spans="1:17" s="44" customFormat="1">
+    <row r="21" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="39"/>
@@ -4332,7 +4332,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="23" spans="1:17" s="44" customFormat="1">
+    <row r="23" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="39"/>
@@ -4351,7 +4351,7 @@
       <c r="P23" s="45"/>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:17" s="44" customFormat="1">
+    <row r="24" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="39"/>
@@ -4370,7 +4370,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="43"/>
     </row>
-    <row r="28" spans="1:17" s="44" customFormat="1">
+    <row r="28" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
@@ -4389,7 +4389,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" s="44" customFormat="1">
+    <row r="29" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="39"/>
@@ -4408,7 +4408,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="43"/>
     </row>
-    <row r="32" spans="1:17" s="44" customFormat="1">
+    <row r="32" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="39"/>
@@ -4427,7 +4427,7 @@
       <c r="P32" s="46"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:17" s="44" customFormat="1">
+    <row r="33" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="39"/>
@@ -4446,7 +4446,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:17" s="44" customFormat="1">
+    <row r="34" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="39"/>
@@ -4465,7 +4465,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:17" s="44" customFormat="1">
+    <row r="35" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="39"/>
@@ -4484,7 +4484,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="44" customFormat="1">
+    <row r="36" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="39"/>
@@ -4546,70 +4546,70 @@
   </sheetPr>
   <dimension ref="B3:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="19.350000000000001"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="19.3" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="95" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="95" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="28.3828125" style="95" customWidth="1"/>
+    <col min="3" max="3" width="48.53515625" style="95" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="95" customWidth="1"/>
     <col min="5" max="5" width="70" style="95" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="95" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="95"/>
+    <col min="6" max="6" width="20.15234375" style="95" customWidth="1"/>
+    <col min="7" max="16384" width="9.3046875" style="95"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="39.6" customHeight="1">
+    <row r="3" spans="2:5" ht="39.65" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-    </row>
-    <row r="4" spans="2:5" ht="92.25" customHeight="1">
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
+    </row>
+    <row r="4" spans="2:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-    </row>
-    <row r="5" spans="2:5" ht="85.5" customHeight="1">
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+    </row>
+    <row r="5" spans="2:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B5" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-    </row>
-    <row r="8" spans="2:5" ht="29.25" customHeight="1">
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+    </row>
+    <row r="8" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B8" s="105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="27.75" customHeight="1">
-      <c r="B9" s="139" t="s">
+    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="140" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="139"/>
-    </row>
-    <row r="10" spans="2:5" ht="38.25" customHeight="1">
-      <c r="B10" s="140"/>
+      <c r="E9" s="140"/>
+    </row>
+    <row r="10" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="141"/>
       <c r="C10" s="98" t="s">
         <v>155</v>
       </c>
@@ -4620,81 +4620,81 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="53.25" customHeight="1">
+    <row r="11" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="96" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="143"/>
+    </row>
+    <row r="12" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B12" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="142"/>
-    </row>
-    <row r="12" spans="2:5" ht="53.25" customHeight="1">
-      <c r="B12" s="96" t="s">
+      <c r="C12" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="D12" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="145"/>
+    </row>
+    <row r="13" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B13" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="C13" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="144"/>
-    </row>
-    <row r="13" spans="2:5" ht="53.25" customHeight="1">
-      <c r="B13" s="96" t="s">
+      <c r="D13" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="145"/>
+    </row>
+    <row r="17" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B17" s="101" t="s">
         <v>164</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="144"/>
-    </row>
-    <row r="17" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B17" s="101" t="s">
-        <v>167</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
       <c r="E17" s="103"/>
     </row>
-    <row r="18" spans="2:6" ht="49.5" customHeight="1">
+    <row r="18" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B18" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
+        <v>165</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="103"/>
     </row>
-    <row r="19" spans="2:6" ht="49.5" customHeight="1">
+    <row r="19" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B19" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="138" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
+      <c r="C19" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
       <c r="F19" s="103"/>
     </row>
-    <row r="20" spans="2:6" ht="49.5" customHeight="1">
+    <row r="20" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B20" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
+        <v>168</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="103"/>
     </row>
   </sheetData>
@@ -4725,34 +4725,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
       <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.53515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -4855,7 +4855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="84"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -4907,7 +4907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="80"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -4959,7 +4959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="81"/>
@@ -4978,7 +4978,7 @@
       <c r="P5" s="87"/>
       <c r="Q5" s="88"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81"/>
@@ -4997,7 +4997,7 @@
       <c r="P6" s="87"/>
       <c r="Q6" s="88"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -5016,7 +5016,7 @@
       <c r="P7" s="87"/>
       <c r="Q7" s="88"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -5035,7 +5035,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="88"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
@@ -5054,7 +5054,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="88"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
@@ -5073,7 +5073,7 @@
       <c r="P10" s="83"/>
       <c r="Q10" s="88"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
@@ -5092,7 +5092,7 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="88"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -5111,7 +5111,7 @@
       <c r="P12" s="83"/>
       <c r="Q12" s="88"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -5130,7 +5130,7 @@
       <c r="P13" s="83"/>
       <c r="Q13" s="88"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -5149,7 +5149,7 @@
       <c r="P14" s="83"/>
       <c r="Q14" s="88"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -5168,7 +5168,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="88"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -5187,31 +5187,31 @@
       <c r="P16" s="87"/>
       <c r="Q16" s="88"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L17" s="86"/>
     </row>
-    <row r="18" spans="12:12">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L18" s="86"/>
     </row>
-    <row r="19" spans="12:12">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L19" s="86"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L20" s="86"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L21" s="86"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L22" s="86"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L23" s="86"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L24" s="86"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L25" s="86"/>
     </row>
   </sheetData>
@@ -5255,34 +5255,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="82.140625" style="27" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="82.15234375" style="27" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -5385,7 +5385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -5437,7 +5437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="84"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -5489,7 +5489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="80"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -5541,7 +5541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81"/>
@@ -5560,7 +5560,7 @@
       <c r="P6" s="87"/>
       <c r="Q6" s="90"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -5579,7 +5579,7 @@
       <c r="P7" s="87"/>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -5598,7 +5598,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="90"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
@@ -5617,7 +5617,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="90"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
@@ -5636,7 +5636,7 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="90"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
@@ -5655,7 +5655,7 @@
       <c r="P11" s="87"/>
       <c r="Q11" s="90"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -5674,7 +5674,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="90"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -5693,7 +5693,7 @@
       <c r="P13" s="87"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -5712,7 +5712,7 @@
       <c r="P14" s="87"/>
       <c r="Q14" s="90"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -5731,7 +5731,7 @@
       <c r="P15" s="87"/>
       <c r="Q15" s="90"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -5750,34 +5750,34 @@
       <c r="P16" s="87"/>
       <c r="Q16" s="90"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L17" s="86"/>
     </row>
-    <row r="18" spans="12:12">
+    <row r="18" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L18" s="86"/>
     </row>
-    <row r="19" spans="12:12">
+    <row r="19" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L19" s="86"/>
     </row>
-    <row r="20" spans="12:12">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L20" s="86"/>
     </row>
-    <row r="21" spans="12:12">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L21" s="86"/>
     </row>
-    <row r="22" spans="12:12">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L22" s="86"/>
     </row>
-    <row r="23" spans="12:12">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L23" s="86"/>
     </row>
-    <row r="24" spans="12:12">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L24" s="86"/>
     </row>
-    <row r="25" spans="12:12">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L25" s="86"/>
     </row>
-    <row r="26" spans="12:12">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L26" s="86"/>
     </row>
   </sheetData>
@@ -5821,34 +5821,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="88.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="88.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -5951,7 +5951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -6003,7 +6003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="84"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -6055,7 +6055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="80"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -6107,7 +6107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81"/>
@@ -6126,7 +6126,7 @@
       <c r="P6" s="87"/>
       <c r="Q6" s="90"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -6145,7 +6145,7 @@
       <c r="P7" s="87"/>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -6164,7 +6164,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="90"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
@@ -6183,7 +6183,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="90"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
@@ -6202,7 +6202,7 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="90"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
@@ -6221,7 +6221,7 @@
       <c r="P11" s="87"/>
       <c r="Q11" s="90"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -6281,34 +6281,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.69140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -6411,7 +6411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="3" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -6463,7 +6463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="4" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="84"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -6515,7 +6515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="5" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="80"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -6567,7 +6567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="6" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -6619,7 +6619,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -6638,7 +6638,7 @@
       <c r="P7" s="87"/>
       <c r="Q7" s="90"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -6657,7 +6657,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="90"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
@@ -6676,7 +6676,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="90"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
@@ -6695,7 +6695,7 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="90"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
@@ -6714,7 +6714,7 @@
       <c r="P11" s="87"/>
       <c r="Q11" s="90"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -6733,7 +6733,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="90"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -6752,7 +6752,7 @@
       <c r="P13" s="87"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -6812,34 +6812,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="76.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.15234375" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="36.6" customHeight="1">
+    <row r="2" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -6942,7 +6942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="36.6" customHeight="1">
+    <row r="3" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -6994,7 +6994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="36.6" customHeight="1">
+    <row r="4" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="80"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -7046,7 +7046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="36.6" customHeight="1">
+    <row r="5" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="84"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -7098,7 +7098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="36.6" customHeight="1">
+    <row r="6" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -7150,7 +7150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36.6" customHeight="1">
+    <row r="7" spans="1:17" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
@@ -7202,7 +7202,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -7221,7 +7221,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="90"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81"/>
@@ -7240,7 +7240,7 @@
       <c r="P9" s="87"/>
       <c r="Q9" s="90"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
@@ -7259,7 +7259,7 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="90"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="81"/>
@@ -7278,7 +7278,7 @@
       <c r="P11" s="87"/>
       <c r="Q11" s="90"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -7297,7 +7297,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="90"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -7316,7 +7316,7 @@
       <c r="P13" s="87"/>
       <c r="Q13" s="90"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -7335,7 +7335,7 @@
       <c r="P14" s="87"/>
       <c r="Q14" s="90"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -7354,7 +7354,7 @@
       <c r="P15" s="87"/>
       <c r="Q15" s="90"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -7373,7 +7373,7 @@
       <c r="P16" s="87"/>
       <c r="Q16" s="90"/>
     </row>
-    <row r="17" spans="12:13">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.6">
       <c r="L17" s="80"/>
       <c r="M17" s="80"/>
     </row>
@@ -7413,34 +7413,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.53515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="R1" s="80"/>
     </row>
-    <row r="2" spans="1:18" ht="36.6" customHeight="1">
+    <row r="2" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="R2" s="80"/>
     </row>
-    <row r="3" spans="1:18" ht="36.6" customHeight="1">
+    <row r="3" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="R3" s="80"/>
     </row>
-    <row r="4" spans="1:18" ht="36.6" customHeight="1">
+    <row r="4" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="80"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="R4" s="80"/>
     </row>
-    <row r="5" spans="1:18" ht="36.6" customHeight="1">
+    <row r="5" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="84"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="R5" s="80"/>
     </row>
-    <row r="6" spans="1:18" ht="36.6" customHeight="1">
+    <row r="6" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="R6" s="80"/>
     </row>
-    <row r="7" spans="1:18" ht="36.6" customHeight="1">
+    <row r="7" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="R7" s="80"/>
     </row>
-    <row r="8" spans="1:18" ht="36.6" customHeight="1">
+    <row r="8" spans="1:18" ht="36.65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="R8" s="80"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -7883,7 +7883,7 @@
       <c r="Q12" s="88"/>
       <c r="R12" s="80"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -7903,7 +7903,7 @@
       <c r="Q14" s="88"/>
       <c r="R14" s="80"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -7923,7 +7923,7 @@
       <c r="Q15" s="88"/>
       <c r="R15" s="80"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" s="80"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -7943,7 +7943,7 @@
       <c r="Q16" s="88"/>
       <c r="R16" s="80"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.6">
       <c r="L17" s="80"/>
     </row>
   </sheetData>
@@ -7984,34 +7984,34 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="16.75" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.5703125" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="14.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.69140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="19.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.15234375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3828125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.53515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.3828125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.53515625" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="80"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33" customHeight="1">
+    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="80"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3" t="s">
@@ -8114,7 +8114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33" customHeight="1">
+    <row r="3" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="80"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
@@ -8166,7 +8166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="33" customHeight="1">
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="80"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
@@ -8218,7 +8218,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="33" customHeight="1">
+    <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="84"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -8270,7 +8270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1">
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="80"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
@@ -8322,7 +8322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1">
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="80"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
@@ -8374,7 +8374,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1">
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="80"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
@@ -8426,7 +8426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="33" customHeight="1">
+    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="80"/>
       <c r="B9" s="77"/>
       <c r="C9" s="67" t="s">
@@ -8474,7 +8474,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
@@ -8493,7 +8493,7 @@
       <c r="P12" s="87"/>
       <c r="Q12" s="88"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="81"/>
@@ -8512,7 +8512,7 @@
       <c r="P13" s="87"/>
       <c r="Q13" s="88"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -8531,7 +8531,7 @@
       <c r="P14" s="87"/>
       <c r="Q14" s="88"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -8550,43 +8550,43 @@
       <c r="P15" s="87"/>
       <c r="Q15" s="88"/>
     </row>
-    <row r="22" spans="15:16">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O22" s="80"/>
       <c r="P22" s="80"/>
     </row>
-    <row r="24" spans="15:16">
+    <row r="24" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O24" s="93"/>
       <c r="P24" s="87"/>
     </row>
-    <row r="25" spans="15:16">
+    <row r="25" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O25" s="80"/>
       <c r="P25" s="87"/>
     </row>
-    <row r="29" spans="15:16">
+    <row r="29" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O29" s="80"/>
       <c r="P29" s="80"/>
     </row>
-    <row r="30" spans="15:16">
+    <row r="30" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O30" s="80"/>
       <c r="P30" s="87"/>
     </row>
-    <row r="33" spans="15:16">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O33" s="28"/>
       <c r="P33" s="80"/>
     </row>
-    <row r="34" spans="15:16">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O34" s="28"/>
       <c r="P34" s="80"/>
     </row>
-    <row r="35" spans="15:16">
+    <row r="35" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O35" s="28"/>
       <c r="P35" s="80"/>
     </row>
-    <row r="36" spans="15:16">
+    <row r="36" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O36" s="28"/>
       <c r="P36" s="87"/>
     </row>
-    <row r="37" spans="15:16">
+    <row r="37" spans="15:16" x14ac:dyDescent="0.6">
       <c r="O37" s="28"/>
       <c r="P37" s="87"/>
     </row>
@@ -8628,35 +8628,35 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="15.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="37"/>
+    <col min="2" max="2" width="15.69140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.15234375" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" style="40" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.15234375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.3046875" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3046875" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.15234375" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="140.140625" style="73" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.42578125" style="44" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="15" max="15" width="20.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.69140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="140.15234375" style="73" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.3828125" style="44" customWidth="1"/>
+    <col min="19" max="16384" width="9.15234375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="R1" s="54"/>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1">
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="55"/>
       <c r="C2" s="56" t="s">
         <v>59</v>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="R2" s="56"/>
     </row>
-    <row r="3" spans="1:18" ht="37.5" customHeight="1">
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
         <v>88</v>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="R3" s="56"/>
     </row>
-    <row r="4" spans="1:18" ht="37.5" customHeight="1">
+    <row r="4" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
       <c r="B4" s="55"/>
       <c r="C4" s="56" t="s">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="R4" s="56"/>
     </row>
-    <row r="5" spans="1:18" ht="37.5" customHeight="1">
+    <row r="5" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>64</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="R5" s="56"/>
     </row>
-    <row r="6" spans="1:18" ht="37.5" customHeight="1">
+    <row r="6" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
       <c r="C6" s="56" t="s">
         <v>67</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:18" ht="37.5" customHeight="1">
+    <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
         <v>100</v>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="R7" s="56"/>
     </row>
-    <row r="8" spans="1:18" ht="37.5" customHeight="1">
+    <row r="8" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
       <c r="C8" s="56" t="s">
         <v>83</v>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="R8" s="36"/>
     </row>
-    <row r="9" spans="1:18" ht="37.5" customHeight="1">
+    <row r="9" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
         <v>110</v>
@@ -9120,22 +9120,22 @@
       </c>
       <c r="R9" s="56"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M13" s="37"/>
     </row>
-    <row r="20" spans="1:17" s="44" customFormat="1">
+    <row r="20" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="39"/>
@@ -9154,7 +9154,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="39"/>
     </row>
-    <row r="22" spans="1:17" s="44" customFormat="1">
+    <row r="22" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="39"/>
@@ -9173,7 +9173,7 @@
       <c r="P22" s="45"/>
       <c r="Q22" s="73"/>
     </row>
-    <row r="23" spans="1:17" s="44" customFormat="1">
+    <row r="23" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="39"/>
@@ -9192,7 +9192,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="73"/>
     </row>
-    <row r="27" spans="1:17" s="44" customFormat="1">
+    <row r="27" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="39"/>
@@ -9211,7 +9211,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="39"/>
     </row>
-    <row r="28" spans="1:17" s="44" customFormat="1">
+    <row r="28" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="39"/>
@@ -9230,7 +9230,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="73"/>
     </row>
-    <row r="31" spans="1:17" s="44" customFormat="1">
+    <row r="31" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="39"/>
@@ -9249,7 +9249,7 @@
       <c r="P31" s="46"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:17" s="44" customFormat="1">
+    <row r="32" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="39"/>
@@ -9268,7 +9268,7 @@
       <c r="P32" s="46"/>
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="1:17" s="44" customFormat="1">
+    <row r="33" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="39"/>
@@ -9287,7 +9287,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="44" customFormat="1">
+    <row r="34" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="39"/>
@@ -9306,7 +9306,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="73"/>
     </row>
-    <row r="35" spans="1:17" s="44" customFormat="1">
+    <row r="35" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="39"/>
@@ -9353,9 +9353,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9497,24 +9500,44 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBA5460-617B-4FEF-BA90-2B9D69F7B2B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A5E9D6-D263-445D-A876-96A4702D14D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB794A37-9ADE-46B4-9988-E83AFFE4AF44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB794A37-9ADE-46B4-9988-E83AFFE4AF44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65d4c795-5362-4472-a968-0591b4901adb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A5E9D6-D263-445D-A876-96A4702D14D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBA5460-617B-4FEF-BA90-2B9D69F7B2B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
